--- a/documentacao/Plano de Homologação.xlsx
+++ b/documentacao/Plano de Homologação.xlsx
@@ -337,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,18 +382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8181"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8181"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,30 +394,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8F8F"/>
+        <fgColor rgb="FFFF6565"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6565"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6161"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4747"/>
+        <fgColor rgb="FFFF6161"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="40">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -495,32 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -583,69 +551,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -745,9 +650,71 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -756,7 +723,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -764,101 +731,74 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -867,55 +807,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -968,7 +865,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1048,203 +945,205 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="19" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1333,10 +1232,10 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFF6161"/>
       <color rgb="FFFF4747"/>
       <color rgb="FFFF8F8F"/>
       <color rgb="FFFF4F4F"/>
-      <color rgb="FFFF6161"/>
       <color rgb="FFFF7D7D"/>
       <color rgb="FFFF6D6D"/>
       <color rgb="FFFF8181"/>
@@ -1643,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1681,13 +1580,13 @@
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -1697,11 +1596,11 @@
     </row>
     <row r="3" spans="1:21" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -1725,13 +1624,13 @@
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="12"/>
@@ -1743,13 +1642,13 @@
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="12"/>
@@ -1761,13 +1660,13 @@
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12"/>
@@ -1779,13 +1678,13 @@
     </row>
     <row r="8" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="80">
         <v>43787</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
       <c r="G8" s="12"/>
@@ -1811,16 +1710,16 @@
     </row>
     <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="8"/>
@@ -1829,24 +1728,24 @@
     </row>
     <row r="11" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="23"/>
@@ -1859,24 +1758,24 @@
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="60">
         <v>43776</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="43" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="23"/>
@@ -1889,24 +1788,24 @@
     </row>
     <row r="13" spans="1:21" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="60">
         <v>43780</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="43" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="23"/>
@@ -1919,24 +1818,24 @@
     </row>
     <row r="14" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="71" t="s">
+      <c r="F14" s="48"/>
+      <c r="G14" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="62">
         <v>43784</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="47" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="23"/>
@@ -1949,14 +1848,14 @@
     </row>
     <row r="15" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="11"/>
@@ -1985,41 +1884,41 @@
     </row>
     <row r="17" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="47" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="47" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="26" t="s">
+      <c r="H18" s="55"/>
+      <c r="I18" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="53" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="11"/>
@@ -2031,25 +1930,25 @@
     </row>
     <row r="19" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="58" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="73" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="70" t="s">
+      <c r="J19" s="43" t="s">
         <v>42</v>
       </c>
       <c r="K19" s="11"/>
@@ -2061,25 +1960,25 @@
     </row>
     <row r="20" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="58" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="69" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="43" t="s">
         <v>42</v>
       </c>
       <c r="K20" s="11"/>
@@ -2091,25 +1990,25 @@
     </row>
     <row r="21" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="58" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="58" t="s">
+      <c r="F21" s="49"/>
+      <c r="G21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="49"/>
+      <c r="I21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="47" t="s">
         <v>42</v>
       </c>
       <c r="K21" s="11"/>
@@ -2121,15 +2020,15 @@
     </row>
     <row r="22" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="R22" s="5"/>
@@ -2153,10 +2052,10 @@
     </row>
     <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="12"/>
@@ -2171,10 +2070,10 @@
     </row>
     <row r="25" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="57">
         <v>43787</v>
       </c>
       <c r="D25" s="12"/>
@@ -2273,15 +2172,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -2296,16 +2196,15 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I15">
